--- a/elearning.xlsx
+++ b/elearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9ddf677702e2882/Desktop/sparta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4DB114E441178AC67DF4952655EB28693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B566FF-D691-4E3B-B90C-DCF1AB5BCF40}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4DB114E441178AC67DF4952655EB28693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C949E5-E817-4E64-A02E-82508177591A}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="3000" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>First name</t>
   </si>
@@ -46,24 +46,6 @@
   </si>
   <si>
     <t>Last downloaded from this course</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Spartali</t>
-  </si>
-  <si>
-    <t>Csd/4683</t>
-  </si>
-  <si>
-    <t>nspart@csd.auth.gr</t>
-  </si>
-  <si>
-    <t>Csd/1111</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -127,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,7 +381,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,44 +419,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>111111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>37373736</v>
-      </c>
-      <c r="G2">
-        <v>7372726</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B83C5CA8-1CDB-4172-A94C-462065B4DF5F}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{96396368-A0FD-44BF-B87E-327266F10350}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>